--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H2">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I2">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J2">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>0.2869655263744445</v>
+        <v>0.1626160740788889</v>
       </c>
       <c r="R2">
-        <v>2.58268973737</v>
+        <v>1.46354466671</v>
       </c>
       <c r="S2">
-        <v>2.19282500870351E-05</v>
+        <v>3.205457763734004E-05</v>
       </c>
       <c r="T2">
-        <v>2.19282500870351E-05</v>
+        <v>3.205457763734004E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H3">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I3">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J3">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>0.03169277128911111</v>
+        <v>0.02782337462955555</v>
       </c>
       <c r="R3">
-        <v>0.285234941602</v>
+        <v>0.250410371666</v>
       </c>
       <c r="S3">
-        <v>2.421778753563633E-06</v>
+        <v>5.484491783777908E-06</v>
       </c>
       <c r="T3">
-        <v>2.421778753563634E-06</v>
+        <v>5.484491783777908E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H4">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I4">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J4">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>135.1995302538422</v>
+        <v>91.97721652857733</v>
       </c>
       <c r="R4">
-        <v>1216.79577228458</v>
+        <v>827.7949487571959</v>
       </c>
       <c r="S4">
-        <v>0.01033116816682528</v>
+        <v>0.01813037760739097</v>
       </c>
       <c r="T4">
-        <v>0.01033116816682528</v>
+        <v>0.01813037760739097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H5">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I5">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J5">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>0.05431756251666666</v>
+        <v>0.04323342183688889</v>
       </c>
       <c r="R5">
-        <v>0.4888580626499999</v>
+        <v>0.389100796532</v>
       </c>
       <c r="S5">
-        <v>4.150634781926549E-06</v>
+        <v>8.522091586875532E-06</v>
       </c>
       <c r="T5">
-        <v>4.15063478192655E-06</v>
+        <v>8.522091586875532E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H6">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I6">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J6">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>147.8874708229627</v>
+        <v>65.92502683135757</v>
       </c>
       <c r="R6">
-        <v>1330.987237406664</v>
+        <v>593.325241482218</v>
       </c>
       <c r="S6">
-        <v>0.01130070739128972</v>
+        <v>0.01299501849850535</v>
       </c>
       <c r="T6">
-        <v>0.01130070739128973</v>
+        <v>0.01299501849850534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>45.081112</v>
       </c>
       <c r="I7">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J7">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>4.249320572057778</v>
+        <v>2.742860079391111</v>
       </c>
       <c r="R7">
-        <v>38.24388514852</v>
+        <v>24.68574071452</v>
       </c>
       <c r="S7">
-        <v>0.0003247085647579865</v>
+        <v>0.000540667470059266</v>
       </c>
       <c r="T7">
-        <v>0.0003247085647579865</v>
+        <v>0.0005406674700592661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>45.081112</v>
       </c>
       <c r="I8">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J8">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>0.4692993849324444</v>
@@ -948,10 +948,10 @@
         <v>4.223694464392</v>
       </c>
       <c r="S8">
-        <v>3.586115171570254E-05</v>
+        <v>9.250742065126454E-05</v>
       </c>
       <c r="T8">
-        <v>3.586115171570254E-05</v>
+        <v>9.250742065126454E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>45.081112</v>
       </c>
       <c r="I9">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J9">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>2002.004047310409</v>
+        <v>1551.388058399195</v>
       </c>
       <c r="R9">
-        <v>18018.03642579368</v>
+        <v>13962.49252559275</v>
       </c>
       <c r="S9">
-        <v>0.1529816001919198</v>
+        <v>0.3058067244906826</v>
       </c>
       <c r="T9">
-        <v>0.1529816001919198</v>
+        <v>0.3058067244906826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>45.081112</v>
       </c>
       <c r="I10">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J10">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>0.8043221732666664</v>
+        <v>0.7292220496871111</v>
       </c>
       <c r="R10">
-        <v>7.238899559399998</v>
+        <v>6.562998447184</v>
       </c>
       <c r="S10">
-        <v>6.146166053034907E-05</v>
+        <v>0.0001437428922015177</v>
       </c>
       <c r="T10">
-        <v>6.146166053034907E-05</v>
+        <v>0.0001437428922015177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>45.081112</v>
       </c>
       <c r="I11">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J11">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>2189.884199879883</v>
+        <v>1111.963410460869</v>
       </c>
       <c r="R11">
-        <v>19708.95779891894</v>
+        <v>10007.67069414782</v>
       </c>
       <c r="S11">
-        <v>0.1673383176136422</v>
+        <v>0.2191881563516767</v>
       </c>
       <c r="T11">
-        <v>0.1673383176136423</v>
+        <v>0.2191881563516767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H12">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I12">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J12">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>0.9180608790227779</v>
+        <v>2.277320165840555</v>
       </c>
       <c r="R12">
-        <v>8.262547911205003</v>
+        <v>20.495881492565</v>
       </c>
       <c r="S12">
-        <v>7.015291629164674E-05</v>
+        <v>0.0004489011094044914</v>
       </c>
       <c r="T12">
-        <v>7.015291629164674E-05</v>
+        <v>0.0004489011094044915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H13">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I13">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J13">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.1013915986214445</v>
+        <v>0.3896461803332222</v>
       </c>
       <c r="R13">
-        <v>0.9125243875930001</v>
+        <v>3.506815622999</v>
       </c>
       <c r="S13">
-        <v>7.747761061704013E-06</v>
+        <v>7.680632932095695E-05</v>
       </c>
       <c r="T13">
-        <v>7.747761061704015E-06</v>
+        <v>7.680632932095695E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H14">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I14">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J14">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>432.5306985702189</v>
+        <v>1288.074202903199</v>
       </c>
       <c r="R14">
-        <v>3892.776287131971</v>
+        <v>11592.66782612879</v>
       </c>
       <c r="S14">
-        <v>0.03305150081404483</v>
+        <v>0.2539027877378554</v>
       </c>
       <c r="T14">
-        <v>0.03305150081404483</v>
+        <v>0.2539027877378554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,14 +1331,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H15">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I15">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J15">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>0.1737728911916666</v>
+        <v>0.6054527139775555</v>
       </c>
       <c r="R15">
-        <v>1.563956020725</v>
+        <v>5.449074425798</v>
       </c>
       <c r="S15">
-        <v>1.327872188879531E-05</v>
+        <v>0.0001193457112764679</v>
       </c>
       <c r="T15">
-        <v>1.327872188879532E-05</v>
+        <v>0.0001193457112764679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H16">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I16">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J16">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N16">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O16">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P16">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q16">
-        <v>473.1219919532307</v>
+        <v>923.2321828394253</v>
       </c>
       <c r="R16">
-        <v>4258.097927579077</v>
+        <v>8309.089645554828</v>
       </c>
       <c r="S16">
-        <v>0.03615325329248525</v>
+        <v>0.1819858082895337</v>
       </c>
       <c r="T16">
-        <v>0.03615325329248526</v>
+        <v>0.1819858082895337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H17">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I17">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J17">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N17">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q17">
-        <v>0.02441017980888889</v>
+        <v>0.03402985235333333</v>
       </c>
       <c r="R17">
-        <v>0.21969161828</v>
+        <v>0.30626867118</v>
       </c>
       <c r="S17">
-        <v>1.865285124249958E-06</v>
+        <v>6.70790111264132E-06</v>
       </c>
       <c r="T17">
-        <v>1.865285124249958E-06</v>
+        <v>6.707901112641321E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H18">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I18">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J18">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.093691</v>
       </c>
       <c r="O18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q18">
-        <v>0.002695885654222222</v>
+        <v>0.005822458425333334</v>
       </c>
       <c r="R18">
-        <v>0.024262970888</v>
+        <v>0.052402125828</v>
       </c>
       <c r="S18">
-        <v>2.060040297478033E-07</v>
+        <v>1.147712160019865E-06</v>
       </c>
       <c r="T18">
-        <v>2.060040297478034E-07</v>
+        <v>1.147712160019865E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H19">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I19">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J19">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N19">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q19">
-        <v>11.50049235972444</v>
+        <v>19.247611996952</v>
       </c>
       <c r="R19">
-        <v>103.50443123752</v>
+        <v>173.228507972568</v>
       </c>
       <c r="S19">
-        <v>0.0008788012824195883</v>
+        <v>0.003794053426664248</v>
       </c>
       <c r="T19">
-        <v>0.0008788012824195883</v>
+        <v>0.003794053426664248</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H20">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I20">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J20">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N20">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q20">
-        <v>0.004620420733333332</v>
+        <v>0.009047241917333334</v>
       </c>
       <c r="R20">
-        <v>0.04158378659999998</v>
+        <v>0.081425177256</v>
       </c>
       <c r="S20">
-        <v>3.530658982906951E-07</v>
+        <v>1.783375475552743E-06</v>
       </c>
       <c r="T20">
-        <v>3.530658982906952E-07</v>
+        <v>1.783375475552743E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H21">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I21">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J21">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N21">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O21">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P21">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q21">
-        <v>12.57976802955733</v>
+        <v>13.79580058224934</v>
       </c>
       <c r="R21">
-        <v>113.217912266016</v>
+        <v>124.162205240244</v>
       </c>
       <c r="S21">
-        <v>0.000961273303013681</v>
+        <v>0.002719402515021004</v>
       </c>
       <c r="T21">
-        <v>0.0009612733030136812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>27.476122</v>
-      </c>
-      <c r="H22">
-        <v>82.428366</v>
-      </c>
-      <c r="I22">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J22">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.2827783333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.8483350000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.00101236699965667</v>
-      </c>
-      <c r="P22">
-        <v>0.00101236699965667</v>
-      </c>
-      <c r="Q22">
-        <v>7.769651985623334</v>
-      </c>
-      <c r="R22">
-        <v>69.92686787061</v>
-      </c>
-      <c r="S22">
-        <v>0.0005937119833957516</v>
-      </c>
-      <c r="T22">
-        <v>0.0005937119833957516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>27.476122</v>
-      </c>
-      <c r="H23">
-        <v>82.428366</v>
-      </c>
-      <c r="I23">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J23">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.03123033333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.093691</v>
-      </c>
-      <c r="O23">
-        <v>0.0001118068646994796</v>
-      </c>
-      <c r="P23">
-        <v>0.0001118068646994796</v>
-      </c>
-      <c r="Q23">
-        <v>0.8580884487673333</v>
-      </c>
-      <c r="R23">
-        <v>7.722796038905999</v>
-      </c>
-      <c r="S23">
-        <v>6.557016913876164E-05</v>
-      </c>
-      <c r="T23">
-        <v>6.557016913876164E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>27.476122</v>
-      </c>
-      <c r="H24">
-        <v>82.428366</v>
-      </c>
-      <c r="I24">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J24">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>133.2267966666667</v>
-      </c>
-      <c r="N24">
-        <v>399.68039</v>
-      </c>
-      <c r="O24">
-        <v>0.4769616215833458</v>
-      </c>
-      <c r="P24">
-        <v>0.4769616215833458</v>
-      </c>
-      <c r="Q24">
-        <v>3660.555718882527</v>
-      </c>
-      <c r="R24">
-        <v>32945.00146994274</v>
-      </c>
-      <c r="S24">
-        <v>0.2797185511281363</v>
-      </c>
-      <c r="T24">
-        <v>0.2797185511281363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>27.476122</v>
-      </c>
-      <c r="H25">
-        <v>82.428366</v>
-      </c>
-      <c r="I25">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J25">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.05352499999999999</v>
-      </c>
-      <c r="N25">
-        <v>0.160575</v>
-      </c>
-      <c r="O25">
-        <v>0.000191623392845833</v>
-      </c>
-      <c r="P25">
-        <v>0.000191623392845833</v>
-      </c>
-      <c r="Q25">
-        <v>1.47065943005</v>
-      </c>
-      <c r="R25">
-        <v>13.23593487045</v>
-      </c>
-      <c r="S25">
-        <v>0.0001123793097464714</v>
-      </c>
-      <c r="T25">
-        <v>0.0001123793097464714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>27.476122</v>
-      </c>
-      <c r="H26">
-        <v>82.428366</v>
-      </c>
-      <c r="I26">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J26">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>145.729604</v>
-      </c>
-      <c r="N26">
-        <v>437.188812</v>
-      </c>
-      <c r="O26">
-        <v>0.5217225811594521</v>
-      </c>
-      <c r="P26">
-        <v>0.5217225811594522</v>
-      </c>
-      <c r="Q26">
-        <v>4004.084378515688</v>
-      </c>
-      <c r="R26">
-        <v>36036.75940664119</v>
-      </c>
-      <c r="S26">
-        <v>0.3059690295590213</v>
-      </c>
-      <c r="T26">
-        <v>0.3059690295590213</v>
+        <v>0.002719402515021004</v>
       </c>
     </row>
   </sheetData>
